--- a/python/LECTURE/word/sam_kospi.xlsx
+++ b/python/LECTURE/word/sam_kospi.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\pythonProject\testpy\word\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39820A31-2BF0-44BB-89A3-4B488925972B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="18888" windowHeight="7104"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sam_kospi" sheetId="1" r:id="rId1"/>
@@ -37,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,6 +685,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -725,7 +739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,9 +771,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -791,6 +823,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -966,14 +1016,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>42307</v>
       </c>
@@ -1013,7 +1065,7 @@
         <v>498776</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>42306</v>
       </c>
@@ -1033,7 +1085,7 @@
         <v>622336</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>42305</v>
       </c>
@@ -1053,7 +1105,7 @@
         <v>257374</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>42304</v>
       </c>
@@ -1073,7 +1125,7 @@
         <v>131144</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>42303</v>
       </c>
@@ -1093,7 +1145,7 @@
         <v>151996</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>42300</v>
       </c>
@@ -1113,7 +1165,7 @@
         <v>252105</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>42299</v>
       </c>
@@ -1133,7 +1185,7 @@
         <v>229326</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>42298</v>
       </c>
@@ -1153,7 +1205,7 @@
         <v>138655</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>42297</v>
       </c>
@@ -1173,7 +1225,7 @@
         <v>137788</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>42296</v>
       </c>
@@ -1193,7 +1245,7 @@
         <v>116290</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>42293</v>
       </c>
@@ -1213,7 +1265,7 @@
         <v>141898</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>42292</v>
       </c>
@@ -1233,7 +1285,7 @@
         <v>243476</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>42291</v>
       </c>
@@ -1253,7 +1305,7 @@
         <v>174719</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>42290</v>
       </c>
@@ -1273,7 +1325,7 @@
         <v>195273</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>42289</v>
       </c>
@@ -1293,7 +1345,7 @@
         <v>301807</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>42285</v>
       </c>
@@ -1313,7 +1365,7 @@
         <v>500566</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>42284</v>
       </c>
@@ -1333,7 +1385,7 @@
         <v>795678</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>42283</v>
       </c>
@@ -1353,7 +1405,7 @@
         <v>371835</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>42282</v>
       </c>
@@ -1373,7 +1425,7 @@
         <v>210583</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>42279</v>
       </c>
@@ -1393,7 +1445,7 @@
         <v>247859</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>42278</v>
       </c>
@@ -1413,7 +1465,7 @@
         <v>229173</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>42277</v>
       </c>
@@ -1433,7 +1485,7 @@
         <v>354069</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>42272</v>
       </c>
@@ -1453,7 +1505,7 @@
         <v>187315</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>42271</v>
       </c>
@@ -1473,7 +1525,7 @@
         <v>131384</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>42270</v>
       </c>
@@ -1493,7 +1545,7 @@
         <v>195174</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>42269</v>
       </c>
@@ -1513,7 +1565,7 @@
         <v>246705</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>42268</v>
       </c>
@@ -1533,7 +1585,7 @@
         <v>196809</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>42265</v>
       </c>
@@ -1553,7 +1605,7 @@
         <v>421097</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>42264</v>
       </c>
@@ -1573,7 +1625,7 @@
         <v>253091</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>42263</v>
       </c>
@@ -1593,7 +1645,7 @@
         <v>338783</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>42262</v>
       </c>
@@ -1613,7 +1665,7 @@
         <v>212880</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>42261</v>
       </c>
@@ -1633,7 +1685,7 @@
         <v>164129</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>42258</v>
       </c>
@@ -1653,7 +1705,7 @@
         <v>201720</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>42257</v>
       </c>
@@ -1673,7 +1725,7 @@
         <v>356879</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>42256</v>
       </c>
@@ -1693,7 +1745,7 @@
         <v>235189</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>42255</v>
       </c>
@@ -1713,7 +1765,7 @@
         <v>181352</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>42254</v>
       </c>
@@ -1733,7 +1785,7 @@
         <v>190922</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>42251</v>
       </c>
@@ -1753,7 +1805,7 @@
         <v>249642</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>42250</v>
       </c>
@@ -1773,7 +1825,7 @@
         <v>303343</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>42249</v>
       </c>
@@ -1793,7 +1845,7 @@
         <v>312121</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>42248</v>
       </c>
@@ -1813,7 +1865,7 @@
         <v>237062</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42247</v>
       </c>
@@ -1833,7 +1885,7 @@
         <v>406006</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42244</v>
       </c>
@@ -1853,7 +1905,7 @@
         <v>458340</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>42243</v>
       </c>
@@ -1873,7 +1925,7 @@
         <v>491893</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>42242</v>
       </c>
@@ -1893,7 +1945,7 @@
         <v>552568</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>42241</v>
       </c>
@@ -1913,7 +1965,7 @@
         <v>389313</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>42240</v>
       </c>
@@ -1933,7 +1985,7 @@
         <v>445868</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>42237</v>
       </c>
@@ -1953,7 +2005,7 @@
         <v>405850</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>42236</v>
       </c>
@@ -1973,7 +2025,7 @@
         <v>215507</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>42235</v>
       </c>
@@ -1993,7 +2045,7 @@
         <v>400088</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>42234</v>
       </c>
@@ -2013,7 +2065,7 @@
         <v>223321</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>42233</v>
       </c>
@@ -2033,7 +2085,7 @@
         <v>225734</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>42229</v>
       </c>
@@ -2053,7 +2105,7 @@
         <v>149454</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>42228</v>
       </c>
@@ -2073,7 +2125,7 @@
         <v>222497</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>42227</v>
       </c>
@@ -2093,7 +2145,7 @@
         <v>228498</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>42226</v>
       </c>
@@ -2113,7 +2165,7 @@
         <v>114013</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>42223</v>
       </c>
@@ -2133,7 +2185,7 @@
         <v>254834</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>42222</v>
       </c>
@@ -2153,7 +2205,7 @@
         <v>400091</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>42221</v>
       </c>
@@ -2173,7 +2225,7 @@
         <v>248883</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>42220</v>
       </c>
@@ -2193,7 +2245,7 @@
         <v>188260</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>42219</v>
       </c>
@@ -2213,7 +2265,7 @@
         <v>190332</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>42216</v>
       </c>
@@ -2233,7 +2285,7 @@
         <v>370146</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>42215</v>
       </c>
@@ -2253,7 +2305,7 @@
         <v>307189</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>42214</v>
       </c>
@@ -2273,7 +2325,7 @@
         <v>272169</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>42213</v>
       </c>
@@ -2293,7 +2345,7 @@
         <v>252036</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>42212</v>
       </c>
@@ -2313,7 +2365,7 @@
         <v>198204</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>42209</v>
       </c>
@@ -2333,7 +2385,7 @@
         <v>194869</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>42208</v>
       </c>
@@ -2353,7 +2405,7 @@
         <v>198639</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>42207</v>
       </c>
@@ -2373,7 +2425,7 @@
         <v>266557</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>42206</v>
       </c>
@@ -2393,7 +2445,7 @@
         <v>193474</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>42205</v>
       </c>
@@ -2413,7 +2465,7 @@
         <v>127872</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>42202</v>
       </c>
@@ -2433,7 +2485,7 @@
         <v>296710</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>42201</v>
       </c>
@@ -2453,7 +2505,7 @@
         <v>217793</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>42200</v>
       </c>
@@ -2473,7 +2525,7 @@
         <v>166863</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>42199</v>
       </c>
@@ -2493,7 +2545,7 @@
         <v>367936</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>42198</v>
       </c>
@@ -2513,7 +2565,7 @@
         <v>153144</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>42195</v>
       </c>
@@ -2533,7 +2585,7 @@
         <v>174652</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>42194</v>
       </c>
@@ -2553,7 +2605,7 @@
         <v>273889</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>42193</v>
       </c>
@@ -2573,7 +2625,7 @@
         <v>215303</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>42192</v>
       </c>
@@ -2593,7 +2645,7 @@
         <v>236882</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>42191</v>
       </c>
@@ -2613,7 +2665,7 @@
         <v>195947</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>42188</v>
       </c>
@@ -2633,7 +2685,7 @@
         <v>137705</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>42187</v>
       </c>
@@ -2653,7 +2705,7 @@
         <v>151264</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>42186</v>
       </c>
@@ -2673,7 +2725,7 @@
         <v>161559</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>42185</v>
       </c>
@@ -2693,7 +2745,7 @@
         <v>197016</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>42184</v>
       </c>
@@ -2713,7 +2765,7 @@
         <v>229023</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>42181</v>
       </c>
@@ -2733,7 +2785,7 @@
         <v>206209</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>42180</v>
       </c>
@@ -2753,7 +2805,7 @@
         <v>202288</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>42179</v>
       </c>
@@ -2773,7 +2825,7 @@
         <v>195381</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>42178</v>
       </c>
@@ -2793,7 +2845,7 @@
         <v>201743</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>42177</v>
       </c>
@@ -2813,7 +2865,7 @@
         <v>124510</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>42174</v>
       </c>
@@ -2833,7 +2885,7 @@
         <v>140114</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>42173</v>
       </c>
@@ -2853,7 +2905,7 @@
         <v>153150</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>42172</v>
       </c>
@@ -2873,7 +2925,7 @@
         <v>188735</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>42171</v>
       </c>
@@ -2893,7 +2945,7 @@
         <v>254579</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>42170</v>
       </c>
@@ -2913,7 +2965,7 @@
         <v>124242</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>42167</v>
       </c>
@@ -2933,7 +2985,7 @@
         <v>214484</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>42166</v>
       </c>
@@ -2953,7 +3005,7 @@
         <v>304790</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>42165</v>
       </c>
@@ -2973,7 +3025,7 @@
         <v>249342</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>42164</v>
       </c>
@@ -2993,7 +3045,7 @@
         <v>272092</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>42163</v>
       </c>
@@ -3013,7 +3065,7 @@
         <v>197010</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>42160</v>
       </c>
@@ -3033,7 +3085,7 @@
         <v>191117</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>42159</v>
       </c>
@@ -3053,7 +3105,7 @@
         <v>387249</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>42158</v>
       </c>
@@ -3073,7 +3125,7 @@
         <v>232650</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>42157</v>
       </c>
@@ -3093,7 +3145,7 @@
         <v>174332</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>42156</v>
       </c>
@@ -3113,7 +3165,7 @@
         <v>197323</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>42153</v>
       </c>
@@ -3133,7 +3185,7 @@
         <v>336489</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>42152</v>
       </c>
@@ -3153,7 +3205,7 @@
         <v>294025</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>42151</v>
       </c>
@@ -3173,7 +3225,7 @@
         <v>340833</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>42150</v>
       </c>
@@ -3193,7 +3245,7 @@
         <v>193453</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>42146</v>
       </c>
@@ -3213,7 +3265,7 @@
         <v>163630</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>42145</v>
       </c>
@@ -3233,7 +3285,7 @@
         <v>144012</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>42144</v>
       </c>
@@ -3253,7 +3305,7 @@
         <v>205133</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>42143</v>
       </c>
@@ -3273,7 +3325,7 @@
         <v>173093</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>42142</v>
       </c>
@@ -3293,7 +3345,7 @@
         <v>181137</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>42139</v>
       </c>
@@ -3313,7 +3365,7 @@
         <v>177644</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>42138</v>
       </c>
@@ -3333,7 +3385,7 @@
         <v>168743</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>42137</v>
       </c>
@@ -3353,7 +3405,7 @@
         <v>196668</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>42136</v>
       </c>
@@ -3373,7 +3425,7 @@
         <v>212069</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>42135</v>
       </c>
@@ -3393,7 +3445,7 @@
         <v>190643</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>42132</v>
       </c>
@@ -3413,7 +3465,7 @@
         <v>188063</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>42131</v>
       </c>
@@ -3433,7 +3485,7 @@
         <v>192100</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>42130</v>
       </c>
@@ -3453,7 +3505,7 @@
         <v>264689</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>42128</v>
       </c>
@@ -3473,7 +3525,7 @@
         <v>160479</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>42124</v>
       </c>
@@ -3493,7 +3545,7 @@
         <v>352409</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>42123</v>
       </c>
@@ -3513,7 +3565,7 @@
         <v>217050</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>42122</v>
       </c>
@@ -3533,7 +3585,7 @@
         <v>312394</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>42121</v>
       </c>
@@ -3553,7 +3605,7 @@
         <v>329573</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>42118</v>
       </c>
@@ -3573,7 +3625,7 @@
         <v>379744</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>42117</v>
       </c>
@@ -3593,7 +3645,7 @@
         <v>184422</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>42116</v>
       </c>
@@ -3613,7 +3665,7 @@
         <v>252671</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>42115</v>
       </c>
@@ -3633,7 +3685,7 @@
         <v>236011</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>42114</v>
       </c>
@@ -3653,7 +3705,7 @@
         <v>244792</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>42111</v>
       </c>
@@ -3673,7 +3725,7 @@
         <v>198920</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>42110</v>
       </c>
@@ -3693,7 +3745,7 @@
         <v>209588</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>42109</v>
       </c>
@@ -3713,7 +3765,7 @@
         <v>269985</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>42108</v>
       </c>
@@ -3733,7 +3785,7 @@
         <v>188257</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>42107</v>
       </c>
@@ -3753,7 +3805,7 @@
         <v>203599</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>42104</v>
       </c>
@@ -3773,7 +3825,7 @@
         <v>188420</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>42103</v>
       </c>
@@ -3793,7 +3845,7 @@
         <v>169552</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>42102</v>
       </c>
@@ -3813,7 +3865,7 @@
         <v>153728</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>42101</v>
       </c>
@@ -3833,7 +3885,7 @@
         <v>186226</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>42100</v>
       </c>
@@ -3853,7 +3905,7 @@
         <v>209848</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>42097</v>
       </c>
@@ -3873,7 +3925,7 @@
         <v>122227</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>42096</v>
       </c>
@@ -3893,7 +3945,7 @@
         <v>134403</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>42095</v>
       </c>
@@ -3913,7 +3965,7 @@
         <v>143996</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>42094</v>
       </c>
@@ -3933,7 +3985,7 @@
         <v>196149</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>42093</v>
       </c>
@@ -3953,7 +4005,7 @@
         <v>146025</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>42090</v>
       </c>
@@ -3973,7 +4025,7 @@
         <v>310159</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>42089</v>
       </c>
@@ -3993,7 +4045,7 @@
         <v>411450</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>42088</v>
       </c>
@@ -4013,7 +4065,7 @@
         <v>180093</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>42087</v>
       </c>
@@ -4033,7 +4085,7 @@
         <v>171267</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>42086</v>
       </c>
@@ -4053,7 +4105,7 @@
         <v>154858</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>42083</v>
       </c>
@@ -4073,7 +4125,7 @@
         <v>242525</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>42082</v>
       </c>
@@ -4093,7 +4145,7 @@
         <v>247559</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>42081</v>
       </c>
@@ -4113,7 +4165,7 @@
         <v>243666</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>42080</v>
       </c>
@@ -4133,7 +4185,7 @@
         <v>272124</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>42079</v>
       </c>
@@ -4153,7 +4205,7 @@
         <v>179303</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>42076</v>
       </c>
@@ -4173,7 +4225,7 @@
         <v>181823</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>42075</v>
       </c>
@@ -4193,7 +4245,7 @@
         <v>365442</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>42074</v>
       </c>
@@ -4213,7 +4265,7 @@
         <v>407194</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>42073</v>
       </c>
@@ -4233,7 +4285,7 @@
         <v>174618</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>42072</v>
       </c>
@@ -4253,7 +4305,7 @@
         <v>141407</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>42069</v>
       </c>
@@ -4273,7 +4325,7 @@
         <v>234312</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>42068</v>
       </c>
@@ -4293,7 +4345,7 @@
         <v>191913</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>42067</v>
       </c>
@@ -4313,7 +4365,7 @@
         <v>231146</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>42066</v>
       </c>
@@ -4333,7 +4385,7 @@
         <v>251018</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>42065</v>
       </c>
@@ -4353,7 +4405,7 @@
         <v>425208</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>42062</v>
       </c>
@@ -4373,7 +4425,7 @@
         <v>251997</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>42061</v>
       </c>
@@ -4393,7 +4445,7 @@
         <v>145978</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>42060</v>
       </c>
@@ -4413,7 +4465,7 @@
         <v>161395</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>42059</v>
       </c>
@@ -4433,7 +4485,7 @@
         <v>190630</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>42058</v>
       </c>
@@ -4453,7 +4505,7 @@
         <v>303059</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>42052</v>
       </c>
@@ -4473,7 +4525,7 @@
         <v>109601</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>42051</v>
       </c>
@@ -4493,7 +4545,7 @@
         <v>122448</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>42048</v>
       </c>
@@ -4513,7 +4565,7 @@
         <v>129733</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>42047</v>
       </c>
@@ -4533,7 +4585,7 @@
         <v>211969</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>42046</v>
       </c>
@@ -4553,7 +4605,7 @@
         <v>195578</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>42045</v>
       </c>
@@ -4573,7 +4625,7 @@
         <v>130122</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>42044</v>
       </c>
@@ -4593,7 +4645,7 @@
         <v>173539</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>42041</v>
       </c>
@@ -4613,7 +4665,7 @@
         <v>154037</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>42040</v>
       </c>
@@ -4633,7 +4685,7 @@
         <v>127415</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>42039</v>
       </c>
@@ -4653,7 +4705,7 @@
         <v>185927</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>42038</v>
       </c>
@@ -4673,7 +4725,7 @@
         <v>113050</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>42037</v>
       </c>
@@ -4693,7 +4745,7 @@
         <v>197682</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>42034</v>
       </c>
@@ -4713,7 +4765,7 @@
         <v>290431</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>42033</v>
       </c>
@@ -4733,7 +4785,7 @@
         <v>253794</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>42032</v>
       </c>
@@ -4753,7 +4805,7 @@
         <v>181784</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>42031</v>
       </c>
@@ -4773,7 +4825,7 @@
         <v>198957</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>42030</v>
       </c>
@@ -4793,7 +4845,7 @@
         <v>202924</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>42027</v>
       </c>
@@ -4813,7 +4865,7 @@
         <v>254907</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>42026</v>
       </c>
@@ -4833,7 +4885,7 @@
         <v>321030</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>42025</v>
       </c>
@@ -4853,7 +4905,7 @@
         <v>296517</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>42024</v>
       </c>
@@ -4873,7 +4925,7 @@
         <v>263665</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>42023</v>
       </c>
@@ -4893,7 +4945,7 @@
         <v>132117</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>42020</v>
       </c>
@@ -4913,7 +4965,7 @@
         <v>265856</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>42019</v>
       </c>
@@ -4933,7 +4985,7 @@
         <v>246886</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>42018</v>
       </c>
@@ -4953,7 +5005,7 @@
         <v>283081</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>42017</v>
       </c>
@@ -4973,7 +5025,7 @@
         <v>240620</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>42016</v>
       </c>
@@ -4993,7 +5045,7 @@
         <v>154351</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>42013</v>
       </c>
@@ -5013,7 +5065,7 @@
         <v>166024</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>42012</v>
       </c>
@@ -5033,7 +5085,7 @@
         <v>248432</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>42011</v>
       </c>
@@ -5053,7 +5105,7 @@
         <v>283314</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>42010</v>
       </c>
@@ -5073,7 +5125,7 @@
         <v>304365</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>42009</v>
       </c>
@@ -5093,7 +5145,7 @@
         <v>201983</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>42006</v>
       </c>
@@ -5113,7 +5165,7 @@
         <v>159886</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>42003</v>
       </c>
@@ -5133,7 +5185,7 @@
         <v>211811</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>42002</v>
       </c>
@@ -5153,7 +5205,7 @@
         <v>192508</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>41999</v>
       </c>
@@ -5173,7 +5225,7 @@
         <v>226092</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>41997</v>
       </c>
@@ -5193,7 +5245,7 @@
         <v>114026</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>41996</v>
       </c>
@@ -5213,7 +5265,7 @@
         <v>213719</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>41995</v>
       </c>
@@ -5233,7 +5285,7 @@
         <v>345741</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>41992</v>
       </c>
@@ -5253,7 +5305,7 @@
         <v>292899</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>41991</v>
       </c>
@@ -5273,7 +5325,7 @@
         <v>234196</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>41990</v>
       </c>
@@ -5293,7 +5345,7 @@
         <v>250041</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>41989</v>
       </c>
@@ -5313,7 +5365,7 @@
         <v>253907</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>41988</v>
       </c>
@@ -5333,7 +5385,7 @@
         <v>284495</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>41985</v>
       </c>
@@ -5353,7 +5405,7 @@
         <v>286304</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>41984</v>
       </c>
@@ -5373,7 +5425,7 @@
         <v>401712</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>41983</v>
       </c>
@@ -5393,7 +5445,7 @@
         <v>304944</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>41982</v>
       </c>
@@ -5413,7 +5465,7 @@
         <v>269539</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>41981</v>
       </c>
@@ -5433,7 +5485,7 @@
         <v>157879</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>41978</v>
       </c>
@@ -5453,7 +5505,7 @@
         <v>94308</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>41977</v>
       </c>
@@ -5473,7 +5525,7 @@
         <v>174845</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>41976</v>
       </c>
@@ -5493,7 +5545,7 @@
         <v>176584</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>41975</v>
       </c>
@@ -5513,7 +5565,7 @@
         <v>179222</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>41974</v>
       </c>
@@ -5533,7 +5585,7 @@
         <v>256399</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>41971</v>
       </c>
@@ -5553,7 +5605,7 @@
         <v>193564</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>41970</v>
       </c>
@@ -5573,7 +5625,7 @@
         <v>843167</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>41969</v>
       </c>
@@ -5593,7 +5645,7 @@
         <v>222634</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>41968</v>
       </c>
@@ -5613,7 +5665,7 @@
         <v>348025</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>41967</v>
       </c>
@@ -5633,7 +5685,7 @@
         <v>204444</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>41964</v>
       </c>
@@ -5653,7 +5705,7 @@
         <v>183372</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>41963</v>
       </c>
@@ -5673,7 +5725,7 @@
         <v>114872</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>41962</v>
       </c>
@@ -5693,7 +5745,7 @@
         <v>211706</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>41961</v>
       </c>
@@ -5713,7 +5765,7 @@
         <v>202657</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>41960</v>
       </c>
@@ -5733,7 +5785,7 @@
         <v>190967</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>41957</v>
       </c>
@@ -5753,7 +5805,7 @@
         <v>180992</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>41956</v>
       </c>
@@ -5773,7 +5825,7 @@
         <v>230151</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>41955</v>
       </c>
@@ -5793,7 +5845,7 @@
         <v>181449</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>41954</v>
       </c>
@@ -5813,7 +5865,7 @@
         <v>223970</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>41953</v>
       </c>
@@ -5833,7 +5885,7 @@
         <v>352318</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>41950</v>
       </c>
@@ -5853,7 +5905,7 @@
         <v>107688</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>41949</v>
       </c>
@@ -5873,7 +5925,7 @@
         <v>168497</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>41948</v>
       </c>
@@ -5893,7 +5945,7 @@
         <v>187182</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>41947</v>
       </c>
@@ -5913,7 +5965,7 @@
         <v>237045</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>41946</v>
       </c>
